--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -475,12 +475,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:050557</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>social influence intervention through mass media</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,38 +489,33 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+          <t>BCIO:011000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -528,22 +523,22 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -551,7 +546,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -563,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>informational mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,38 +572,33 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -620,52 +610,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -677,166 +662,161 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -848,47 +828,52 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -900,33 +885,38 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -934,13 +924,13 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>public notice mode of delivery</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -952,21 +942,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -974,61 +964,56 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1040,47 +1025,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>virtual reality mode of delivery</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1092,83 +1082,73 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1180,21 +1160,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1206,21 +1186,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1232,7 +1212,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1240,13 +1220,13 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1258,38 +1238,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1297,13 +1272,13 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>public notice mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1315,7 +1290,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1323,13 +1298,13 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1341,7 +1316,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1349,30 +1324,25 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>printed publication mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1380,65 +1350,75 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>playable electronic storage mode of delivery</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1450,21 +1430,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1472,56 +1452,61 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1533,21 +1518,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1559,47 +1544,52 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1611,21 +1601,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>virtual reality mode of delivery</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1637,21 +1627,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -1659,30 +1649,30 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1694,21 +1684,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1716,56 +1706,61 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1777,21 +1772,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1803,47 +1798,52 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -1855,7 +1855,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1863,25 +1863,30 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1889,13 +1894,13 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -1907,7 +1912,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1915,13 +1920,13 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>temperature mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -1933,21 +1938,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -1959,47 +1964,52 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2011,7 +2021,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2019,13 +2029,13 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2037,7 +2047,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2045,44 +2055,39 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2094,21 +2099,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2120,21 +2125,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2146,7 +2151,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2154,13 +2159,13 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>physical pressure mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2168,16 +2173,16 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2185,44 +2190,39 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2234,57 +2234,140 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BCIO:011040</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BCIO:011064</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BCIO:011065</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
@@ -506,13 +506,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>group-based mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,30 +520,25 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -551,10 +546,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -563,13 +558,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>informational mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,41 +572,36 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -620,55 +610,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -677,7 +662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -685,30 +670,25 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -716,47 +696,42 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -765,24 +740,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -791,7 +766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -799,30 +774,25 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -830,16 +800,16 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -848,24 +818,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -874,24 +844,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -900,24 +870,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -926,7 +896,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -934,104 +904,104 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1040,7 +1010,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1048,16 +1018,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>video game mode of delivery</t>
+          <t>electrical stimulation mode of delivery</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1066,7 +1036,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1074,16 +1044,16 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1092,7 +1062,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1100,30 +1070,30 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1131,47 +1101,47 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1180,133 +1150,148 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1315,24 +1300,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1341,81 +1326,86 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1424,24 +1414,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1450,55 +1440,55 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1507,24 +1497,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1533,24 +1523,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+          <t>Informational mode of delivery that involves visual images.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1559,24 +1549,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1585,24 +1575,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1611,24 +1601,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1637,55 +1627,55 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>group-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1694,55 +1684,55 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1751,33 +1741,38 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1785,16 +1780,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1803,24 +1798,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>virtual reality mode of delivery</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1829,33 +1824,38 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1863,16 +1863,16 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1881,7 +1881,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1889,16 +1889,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1907,7 +1907,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1915,68 +1915,78 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1985,33 +1995,38 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2019,16 +2034,16 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2037,7 +2052,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2045,47 +2060,47 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2094,7 +2109,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2102,16 +2117,16 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>temperature mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2120,24 +2135,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2146,38 +2161,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2185,30 +2195,25 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Includes photo therapy</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2216,16 +2221,16 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2234,44 +2239,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>chewable substance mode of delivery</t>
+          <t>mass media mode of delivery</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2279,10 +2284,88 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BCIO:011055</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BCIO:011060</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BCIO:050557</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>social influence intervention through mass media</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
@@ -492,27 +492,27 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>group-based mode of delivery</t>
+          <t>arts feature mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,10 +520,15 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -532,13 +537,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>informational mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,10 +551,15 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -558,24 +568,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -584,24 +594,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asynchronous mode of delivery</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -610,24 +620,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -636,24 +646,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -662,7 +677,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -670,16 +685,16 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>email mode of delivery</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -688,7 +703,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -696,16 +711,16 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -714,24 +729,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -740,24 +760,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mobile digital device mode of delivery</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -766,7 +786,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -774,16 +794,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -792,7 +817,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -800,16 +825,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -818,24 +848,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -844,24 +879,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -870,24 +905,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -896,7 +936,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -904,30 +944,25 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Includes insulin pump.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -935,16 +970,16 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>e-book mode of delivery</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -953,55 +988,50 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1010,7 +1040,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1018,16 +1048,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>call mode of delivery</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1036,24 +1066,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1062,69 +1097,64 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Includes massage.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1132,16 +1162,16 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>temperature mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1150,148 +1180,138 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Includes surgery.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1300,24 +1320,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1326,86 +1351,76 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>letter mode of delivery</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1414,7 +1429,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1422,16 +1437,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>public notice mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1440,7 +1455,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1448,47 +1463,42 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>printed publication mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1497,24 +1507,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1523,24 +1533,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1549,24 +1559,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1575,24 +1585,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>individual-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1601,24 +1611,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1627,55 +1637,55 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1684,55 +1694,55 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1741,55 +1751,50 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1798,7 +1803,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1806,16 +1811,16 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1824,7 +1829,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1832,30 +1837,25 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1863,16 +1863,16 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>mobile digital device mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1881,24 +1881,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1907,69 +1907,59 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>electronic environmental object mode of delivery</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1977,16 +1967,16 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>alimentary mode of delivery</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1995,55 +1985,50 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2052,7 +2037,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2060,30 +2045,30 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Mode of delivery</t>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2091,16 +2076,16 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2109,24 +2094,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2135,24 +2125,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>audio informational mode of delivery</t>
+          <t>physical stimulus mode of delivery</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2161,24 +2151,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2187,7 +2177,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2195,16 +2185,21 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2213,7 +2208,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2221,16 +2216,16 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>electrical stimulation mode of delivery</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2239,55 +2234,55 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>This is a form of mass media.</t>
+          <t>Mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2296,13 +2291,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2310,10 +2305,10 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2322,13 +2317,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2336,10 +2331,15 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2365,7 +2365,7 @@
           <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -448,39 +448,39 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:050557</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>social influence intervention through mass media</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,56 +489,56 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+          <t>BCIO:011000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>push mode of delivery</t>
+          <t>environmental change mode of delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -546,25 +546,30 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>gamification mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -572,25 +577,30 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -598,7 +608,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -610,21 +620,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -636,52 +646,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>uni-directional mode of delivery</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -693,21 +698,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -719,21 +724,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -745,21 +750,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -771,7 +776,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -779,25 +784,30 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>physical pressure mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -805,13 +815,13 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>temperature mode of delivery</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -823,7 +833,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -831,39 +841,44 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -875,21 +890,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -901,21 +916,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -927,64 +942,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -992,13 +1007,13 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1010,21 +1025,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1036,69 +1051,59 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1106,13 +1111,13 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1124,52 +1129,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>individual-based mode of delivery</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1181,52 +1181,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1238,73 +1233,83 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>electronic mode of delivery</t>
+          <t>chewable substance mode of delivery</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1316,7 +1321,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1324,30 +1329,25 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1355,13 +1355,13 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>mobile application mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1373,21 +1373,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>call mode of delivery</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1399,95 +1399,90 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1495,30 +1490,25 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>electronic billboard mode of delivery</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1526,13 +1516,13 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>online press mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1544,7 +1534,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1552,30 +1542,25 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>electronic environmental object mode of delivery</t>
+          <t>e-book mode of delivery</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1583,13 +1568,13 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>playable electronic storage mode of delivery</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1599,14 +1584,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1614,13 +1599,13 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1630,14 +1615,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1645,25 +1630,30 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1671,13 +1661,13 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>television mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1687,14 +1677,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1702,13 +1692,13 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1720,7 +1710,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1728,13 +1718,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>website mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1746,7 +1736,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1754,13 +1744,13 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>computer mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1772,7 +1762,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1780,25 +1770,30 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1806,13 +1801,13 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1824,21 +1819,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>online press mode of delivery</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -1850,21 +1845,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -1876,47 +1871,52 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>at-a-distance mode of delivery</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>face to face mode of delivery</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -1928,21 +1928,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -1952,40 +1952,45 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1993,30 +1998,25 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>printed publication mode of delivery</t>
+          <t>letter mode of delivery</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2024,13 +2024,13 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2050,96 +2050,101 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>printed publication mode of delivery</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>audio informational mode of delivery</t>
+          <t>mass media mode of delivery</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2151,52 +2156,47 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2208,13 +2208,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>pull mode of delivery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2222,30 +2222,25 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>arts feature mode of delivery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2253,25 +2248,30 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>environmental change mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2279,7 +2279,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2289,20 +2289,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>group-based mode of delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2310,7 +2310,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2322,13 +2322,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>group-based mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2348,21 +2348,21 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>social influence intervention through mass media</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>BCIO:011059</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -448,14 +448,14 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="K1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -463,24 +463,24 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>social influence intervention through mass media</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,33 +489,38 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:011065</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -525,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>BCI mode of delivery</t>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
@@ -554,7 +559,7 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
@@ -563,13 +568,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamification mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,30 +582,25 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>push mode of delivery</t>
+          <t>pull mode of delivery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -620,13 +620,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pair-based mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -634,7 +634,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -646,13 +646,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>uni-directional mode of delivery</t>
+          <t>somatic alteration mode of delivery</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -660,25 +660,30 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>pair-based mode of delivery</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -686,7 +691,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -698,13 +703,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -712,7 +717,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -724,21 +729,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -750,21 +755,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -776,52 +781,47 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -841,30 +841,25 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -872,13 +867,13 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -890,7 +885,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -898,39 +893,44 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>wearable stimulus mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -950,13 +950,13 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -968,52 +968,47 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1025,7 +1020,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1034,12 +1029,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>subcutaneous injection mode of delivery</t>
+          <t>intravenous injection mode of delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1051,21 +1046,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1077,21 +1072,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1103,7 +1098,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1111,25 +1106,30 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1137,13 +1137,13 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1155,21 +1155,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1181,73 +1181,83 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>buccal mode of delivery</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1255,73 +1265,73 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>human interactional mode of delivery</t>
+          <t>printed material mode of delivery</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1329,25 +1339,30 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>printed publication mode of delivery</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1355,13 +1370,13 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>letter mode of delivery</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1373,21 +1388,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>public notice mode of delivery</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1399,7 +1414,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1407,44 +1422,39 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>labelling mode of delivery</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1456,7 +1466,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1464,25 +1474,30 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>email mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1490,13 +1505,13 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1508,7 +1523,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1516,25 +1531,30 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>video game mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1542,13 +1562,13 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>email mode of delivery</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1560,7 +1580,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1568,30 +1588,25 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>playable electronic storage mode of delivery</t>
+          <t>mobile application mode of delivery</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1599,30 +1614,25 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>electronic environmental object mode of delivery</t>
+          <t>e-book mode of delivery</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1630,30 +1640,25 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1661,30 +1666,25 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1692,13 +1692,13 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>computer mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1710,7 +1710,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1718,13 +1718,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>call mode of delivery</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1736,47 +1736,52 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1784,30 +1789,30 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1819,7 +1824,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1827,25 +1832,30 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>online press mode of delivery</t>
+          <t>3-D projection mode of delivery</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1853,13 +1863,13 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -1871,78 +1881,78 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -1950,47 +1960,42 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1998,39 +2003,44 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2042,109 +2052,104 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mass media mode of delivery</t>
+          <t>human interactional mode of delivery</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>face to face mode of delivery</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2156,21 +2161,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2182,39 +2187,44 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>synchronous mode of delivery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2222,7 +2232,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2234,13 +2244,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>arts feature mode of delivery</t>
+          <t>uni-directional mode of delivery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2248,30 +2258,25 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>somatic alteration mode of delivery</t>
+          <t>asynchronous mode of delivery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2279,17 +2284,12 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
         </is>
       </c>
     </row>
@@ -2322,13 +2322,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>interactional mode of delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2348,21 +2348,21 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050557</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>social influence intervention through mass media</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,22 +449,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:050315</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,13 +493,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>social influence intervention through mass media</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -520,44 +525,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050315</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
-        </is>
-      </c>
+          <t>BCIO:011064</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>gamification mode of delivery</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:011054</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BCI mode of delivery</t>
+          <t>Includes surgery.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -596,14 +616,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>synchronous mode of delivery</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,7 +631,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -623,22 +643,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>arts feature mode of delivery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -650,22 +675,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>electrical stimulation mode of delivery</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -677,22 +702,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -704,27 +729,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>light exposure mode of delivery</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -736,22 +756,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -763,27 +783,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -795,22 +810,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -822,27 +837,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -854,22 +864,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>injection mode of delivery</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -881,22 +891,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -908,22 +918,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -935,7 +945,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -945,12 +955,12 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>intramuscular injection mode of delivery</t>
+          <t>intravenous injection mode of delivery</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -962,22 +972,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>buccal mode of delivery</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -989,22 +999,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1016,7 +1026,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1025,13 +1035,13 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>alimentary mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1043,22 +1053,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1070,22 +1085,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1097,22 +1112,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1124,27 +1139,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1156,27 +1166,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>wearable stimulus mode of delivery</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1188,22 +1193,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1215,22 +1220,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -1242,22 +1252,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>synchronous mode of delivery</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>light exposure mode of delivery</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -1269,27 +1284,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -1301,14 +1316,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>group-based mode of delivery</t>
+          <t>environmental change mode of delivery</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1316,7 +1331,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -1328,14 +1348,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>uni-directional mode of delivery</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1343,7 +1363,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -1355,14 +1375,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>pull mode of delivery</t>
+          <t>informational mode of delivery</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1370,7 +1390,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -1382,22 +1407,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -1409,22 +1439,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -1436,27 +1466,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>mobile digital device mode of delivery</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -1468,27 +1493,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>arts feature mode of delivery</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -1500,27 +1520,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>call mode of delivery</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -1532,27 +1547,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -1564,27 +1579,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -1596,22 +1606,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>labelling mode of delivery</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -1623,7 +1638,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1632,13 +1647,13 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -1650,7 +1665,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1659,13 +1674,13 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>public notice mode of delivery</t>
+          <t>e-book mode of delivery</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -1677,22 +1692,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -1704,22 +1724,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>television mode of delivery</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -1731,7 +1756,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1740,13 +1765,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>wearable electronic device mode of delivery</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -1758,7 +1788,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1767,13 +1797,13 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -1785,22 +1815,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>website mode of delivery</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -1812,22 +1842,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -1839,27 +1869,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>mass media mode of delivery</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
+          <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -1871,22 +1896,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3-D projection mode of delivery</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -1898,7 +1928,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1907,18 +1937,18 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>wearable electronic device mode of delivery</t>
+          <t>electronic environmental object mode of delivery</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -1930,7 +1960,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1939,13 +1969,18 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>electronic billboard mode of delivery</t>
+          <t>radio broadcast mode of delivery</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -1957,7 +1992,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1966,13 +2001,13 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>virtual reality mode of delivery</t>
+          <t>video game mode of delivery</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -1984,7 +2019,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1993,18 +2028,13 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>electronic environmental object mode of delivery</t>
+          <t>computer mode of delivery</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -2016,22 +2046,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>human interactional mode of delivery</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -2043,7 +2073,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2052,18 +2082,13 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3-D projection mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -2075,7 +2100,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2084,13 +2109,13 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>e-book mode of delivery</t>
+          <t>at-a-distance mode of delivery</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -2102,27 +2127,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
+          <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -2134,22 +2154,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>mobile digital device mode of delivery</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>textual mode of delivery</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+          <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -2161,22 +2181,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -2188,7 +2213,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2197,13 +2222,13 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>online press mode of delivery</t>
+          <t>public notice mode of delivery</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -2215,7 +2240,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2224,13 +2249,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>printed publication mode of delivery</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -2242,22 +2272,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -2269,27 +2299,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -2301,27 +2326,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
+          <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -2333,27 +2353,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>pull mode of delivery</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -2365,27 +2380,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>push mode of delivery</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>radio broadcast mode of delivery</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -2397,22 +2407,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -2424,49 +2434,39 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>BCIO:003000</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:050557</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>social influence intervention through mass media</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -444,44 +444,44 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050315</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -493,13 +493,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:050557</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>social influence intervention through mass media</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -508,15 +508,10 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -525,78 +520,63 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:011064</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>gamification mode of delivery</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Includes point scoring, competition with others, and rules of play.</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:011054</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>somatic alteration mode of delivery</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Includes surgery.</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:011055</t>
+          <t>BCIO:011064</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>individual-based mode of delivery</t>
+          <t>gamification mode of delivery</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -604,26 +584,31 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:011060</t>
+          <t>BCIO:011063</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>synchronous mode of delivery</t>
+          <t>pull mode of delivery</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -631,10 +616,10 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+          <t>Mode of delivery that requires some action on the part of the recipient.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -643,14 +628,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011065</t>
+          <t>BCIO:011058</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>arts feature mode of delivery</t>
+          <t>uni-directional mode of delivery</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -658,15 +643,10 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Includes art therapy, music therapy, dance and acting.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -675,14 +655,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:011061</t>
+          <t>BCIO:011055</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>asynchronous mode of delivery</t>
+          <t>individual-based mode of delivery</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -690,10 +670,10 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+          <t>Mode of delivery that involves one recipient in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -702,14 +682,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:011059</t>
+          <t>BCIO:011065</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>interactional mode of delivery</t>
+          <t>arts feature mode of delivery</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -717,26 +697,31 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves application of creativity on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:011057</t>
+          <t>BCIO:011062</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>group-based mode of delivery</t>
+          <t>push mode of delivery</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -744,10 +729,10 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -756,14 +741,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:011001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>informational mode of delivery</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -771,19 +756,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:011035</t>
+          <t>BCIO:011032</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -791,17 +781,17 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>textual mode of delivery</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+          <t>Informational mode of delivery that involves written text.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -810,25 +800,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011037</t>
+          <t>BCIO:011010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>alimentary mode of delivery</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>electronic mode of delivery</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -837,61 +827,71 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011038</t>
+          <t>BCIO:011019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>pill mode of delivery</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>playable electronic storage mode of delivery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011039</t>
+          <t>BCIO:011015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ingestable liquid mode of delivery</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>wearable electronic device mode of delivery</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011036</t>
+          <t>BCIO:050558</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -900,16 +900,16 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>transdermal mode of delivery</t>
+          <t>online press mode of delivery</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+          <t>Electronic mode of delivery of a newspaper or magazine.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -918,7 +918,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011011</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -927,43 +927,48 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>television mode of delivery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Includes internet and satellite television.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011044</t>
+          <t>BCIO:011013</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>intravenous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>computer mode of delivery</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -972,25 +977,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011043</t>
+          <t>BCIO:011029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>subcutaneous injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>e-book mode of delivery</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -999,25 +1004,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011045</t>
+          <t>BCIO:011025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>intramuscular injection mode of delivery</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>email mode of delivery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+          <t>Electronic mode of delivery that involves communication by email.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1026,7 +1031,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1035,16 +1040,16 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>virtual reality mode of delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1053,7 +1058,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:011012</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1062,21 +1067,16 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>mobile digital device mode of delivery</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Includes insulin pump.</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1085,7 +1085,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011017</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1094,43 +1094,48 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>3-D projection mode of delivery</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:011048</t>
+          <t>BCIO:011014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>physical stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>electronic billboard mode of delivery</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1139,7 +1144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:011051</t>
+          <t>BCIO:011021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1148,16 +1153,16 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>electrical stimulation mode of delivery</t>
+          <t>call mode of delivery</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1166,84 +1171,89 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:011053</t>
+          <t>BCIO:011022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>wearable stimulus mode of delivery</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>audio call mode of delivery</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves only audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:011050</t>
+          <t>BCIO:011024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>temperature mode of delivery</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>messaging mode of delivery</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Call mode of delivery that involves textual information in the communication.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:011052</t>
+          <t>BCIO:011023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>physical pressure mode of delivery</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>video call mode of delivery</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Includes massage.</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+          <t>Call mode of delivery that involves video and audio information in the communication.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1252,7 +1262,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:011049</t>
+          <t>BCIO:011027</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1261,21 +1271,16 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>light exposure mode of delivery</t>
+          <t>website mode of delivery</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Includes photo therapy</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1284,89 +1289,89 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:011047</t>
+          <t>BCIO:011016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>chewable substance mode of delivery</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>electronic environmental object mode of delivery</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:011033</t>
+          <t>BCIO:011020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>environmental change mode of delivery</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>radio broadcast mode of delivery</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011058</t>
+          <t>BCIO:011028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>uni-directional mode of delivery</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>mobile application mode of delivery</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mode of delivery in which the only causal influence is from the intervention source to the recipient.</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1375,30 +1380,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011001</t>
+          <t>BCIO:011026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>informational mode of delivery</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>video game mode of delivery</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1407,7 +1407,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050556</t>
+          <t>BCIO:011002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1415,22 +1415,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>mass media mode of delivery</t>
+          <t>human interactional mode of delivery</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>This is a form of mass media.</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
+          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1439,25 +1434,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011010</t>
+          <t>BCIO:011004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>electronic mode of delivery</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>at-a-distance mode of delivery</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1466,7 +1461,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011012</t>
+          <t>BCIO:011003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1475,16 +1470,16 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>mobile digital device mode of delivery</t>
+          <t>face to face mode of delivery</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
+          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1493,34 +1488,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011014</t>
+          <t>BCIO:011005</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>electronic billboard mode of delivery</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>printed material mode of delivery</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery that involves use of printed material.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:011021</t>
+          <t>BCIO:011007</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1529,16 +1529,16 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>call mode of delivery</t>
+          <t>public notice mode of delivery</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication.</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
+          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1547,30 +1547,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:011022</t>
+          <t>BCIO:011006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>audio call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>letter mode of delivery</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves only audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Includes automated calls and audio messaging.</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
+          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1579,25 +1574,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:011023</t>
+          <t>BCIO:011009</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>video call mode of delivery</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>labelling mode of delivery</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves video and audio information in the communication.</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
+          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1606,84 +1601,89 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:011024</t>
+          <t>BCIO:011008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>messaging mode of delivery</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>printed publication mode of delivery</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Call mode of delivery that involves textual information in the communication.</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:011018</t>
+          <t>BCIO:050556</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>virtual reality mode of delivery</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>mass media mode of delivery</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Informational mode of delivery of radio broadcast, television, online press and printed press to a mass audience.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>This is a form of mass media.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:011029</t>
+          <t>BCIO:011030</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>e-book mode of delivery</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>audio informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
+          <t>Informational mode of delivery that involves sound.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1692,30 +1692,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:011019</t>
+          <t>BCIO:011031</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>playable electronic storage mode of delivery</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>visual informational mode of delivery</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Includes cassettes, video tapes, DVDs, CDs.</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
+          <t>Informational mode of delivery that involves visual images.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1724,30 +1719,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:011011</t>
+          <t>BCIO:011056</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>pair-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>television mode of delivery</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Includes internet and satellite television.</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
+          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1756,57 +1746,57 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:011015</t>
+          <t>BCIO:011033</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>environmental change mode of delivery</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>wearable electronic device mode of delivery</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050558</t>
+          <t>BCIO:011057</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>group-based mode of delivery</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>online press mode of delivery</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery of a newspaper or magazine.</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
+          <t>Mode of delivery that involves three or more people in the location where the intervention is delivered.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1815,25 +1805,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:011027</t>
+          <t>BCIO:011060</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>synchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>website mode of delivery</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
+          <t>Mode of delivery that involves delivery and receipt of the intervention or its components occurring at the same time or very close in time.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1842,25 +1832,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:011028</t>
+          <t>BCIO:011059</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>interactional mode of delivery</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>mobile application mode of delivery</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
+          <t>Mode of delivery in which there is causal influence from the intervention source to the recipient and from the recipient to the source.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1869,25 +1859,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011025</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>email mode of delivery</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves communication by email.</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1896,30 +1886,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011017</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3-D projection mode of delivery</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Includes hologram but does not include virtual reality headsets.</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1928,7 +1913,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011016</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1937,30 +1922,30 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>electronic environmental object mode of delivery</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Includes robots, and 'internet of things'.</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Includes insulin pump.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011020</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1969,21 +1954,16 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>radio broadcast mode of delivery</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Includes digital radio and audio that is streamed as a podcast.</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -1992,25 +1972,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011026</t>
+          <t>BCIO:011043</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>video game mode of delivery</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>subcutaneous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2019,25 +1999,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011013</t>
+          <t>BCIO:011045</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>computer mode of delivery</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intramuscular injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2046,25 +2026,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011002</t>
+          <t>BCIO:011044</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>human interactional mode of delivery</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intravenous injection mode of delivery</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
+          <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2073,7 +2053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011003</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2082,16 +2062,16 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>face to face mode of delivery</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2100,7 +2080,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011004</t>
+          <t>BCIO:011040</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2109,16 +2089,16 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>at-a-distance mode of delivery</t>
+          <t>buccal mode of delivery</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2127,25 +2107,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011030</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>audio informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves sound.</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2154,25 +2134,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011032</t>
+          <t>BCIO:011037</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>textual mode of delivery</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>alimentary mode of delivery</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves written text.</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
+          <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2181,30 +2161,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:011005</t>
+          <t>BCIO:011039</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>printed material mode of delivery</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ingestable liquid mode of delivery</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves use of printed material.</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Can include paper, acetate, text, diagrams and photographic images.</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2213,25 +2188,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:011007</t>
+          <t>BCIO:011038</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>public notice mode of delivery</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>pill mode of delivery</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
+          <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2240,30 +2215,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:011008</t>
+          <t>BCIO:011048</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>printed publication mode of delivery</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>physical stimulus mode of delivery</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves use of of a printed publication.</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Includes leaflets, brochures, newspapers, newsletter, booklets, magazines, manuals or worksheets.</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
+          <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2272,7 +2242,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:011009</t>
+          <t>BCIO:011049</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2281,25 +2251,30 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>labelling mode of delivery</t>
+          <t>light exposure mode of delivery</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Includes photo therapy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:011006</t>
+          <t>BCIO:011053</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2308,16 +2283,16 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>letter mode of delivery</t>
+          <t>wearable stimulus mode of delivery</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2326,25 +2301,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:011031</t>
+          <t>BCIO:011051</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>visual informational mode of delivery</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>electrical stimulation mode of delivery</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Informational mode of delivery that involves visual images.</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
+          <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2353,52 +2328,57 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:011063</t>
+          <t>BCIO:011052</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>pull mode of delivery</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>physical pressure mode of delivery</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Mode of delivery that requires some action on the part of the recipient.</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Includes massage.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:011062</t>
+          <t>BCIO:011050</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>push mode of delivery</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>temperature mode of delivery</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Mode of delivery that is not dependent on actions on the part of the intervention recipient.</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
+          <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>
@@ -2407,69 +2387,89 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:011056</t>
+          <t>BCIO:011047</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>pair-based mode of delivery</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>chewable substance mode of delivery</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves two recipients in the location where the intervention is delivered who have an interpersonal relationship.</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Mode of delivery</t>
+          <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
-        </is>
-      </c>
+          <t>BCIO:011054</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>somatic alteration mode of delivery</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Mode of delivery</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Includes surgery.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050557</t>
+          <t>BCIO:011061</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>social influence intervention through mass media</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>asynchronous mode of delivery</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that is an awareness of other people’s thoughts, feelings and actions BCT delivered through a mass media mode of delivery.</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
+          <t>Mode of delivery that involves receipt of the intervention or its components taking place a significant period of time after delivery.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Mode of delivery</t>
         </is>

--- a/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
+++ b/ModeOfDelivery/BCIO-mode_of_delivery-hierarchy.xlsx
@@ -525,7 +525,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant &amp; there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>realizable</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>A disposition that inheres in some extended organism.</t>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
+          <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -3660,7 +3660,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4339,7 +4339,7 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
+          <t>A mental process that has positive or negative valence.</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Genuss</t>
+          <t>jouissance</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
+          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
     </row>
